--- a/R/Excel/women_labels_tokeep.xlsx
+++ b/R/Excel/women_labels_tokeep.xlsx
@@ -12762,9 +12762,6 @@
     <t>interview_year</t>
   </si>
   <si>
-    <t>interview_date</t>
-  </si>
-  <si>
     <t>womans_birth_month</t>
   </si>
   <si>
@@ -12838,6 +12835,9 @@
   </si>
   <si>
     <t>note: moved to kids module</t>
+  </si>
+  <si>
+    <t>interview_date_cmc</t>
   </si>
 </sst>
 </file>
@@ -13229,7 +13229,7 @@
   <dimension ref="A1:G3205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD31"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13249,13 +13249,13 @@
         <v>4240</v>
       </c>
       <c r="D1" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -13388,7 +13388,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>4247</v>
+        <v>4272</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -13422,7 +13422,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -13456,7 +13456,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -13490,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -13507,7 +13507,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -13524,7 +13524,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -13541,16 +13541,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G18" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -13564,16 +13564,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G19" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13587,16 +13587,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G20" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -13610,16 +13610,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G21" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13633,16 +13633,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G22" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13656,16 +13656,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G23" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -13679,16 +13679,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G24" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -13702,16 +13702,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G25" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13725,16 +13725,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G26" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -13748,16 +13748,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G27" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -13771,16 +13771,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G28" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -13794,16 +13794,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G29" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -13817,16 +13817,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="G30" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -13840,13 +13840,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="32" spans="1:7">
